--- a/Nevasa/MBI/20251020/20251020_informe_operaciones_mbi.xlsx
+++ b/Nevasa/MBI/20251020/20251020_informe_operaciones_mbi.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,17 +653,17 @@
         <v>0.51</v>
       </c>
       <c r="E5" t="n">
-        <v>162230169</v>
+        <v>50312520</v>
       </c>
       <c r="F5" t="n">
-        <v>161407103</v>
+        <v>50057228</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SMT_19112025_20102025_0.51_ENELCHILE</t>
+          <t>SMT_19112025_20102025_0.51_CFIMBIDA-A</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>73.5</v>
+        <v>18163</v>
       </c>
       <c r="L5" t="n">
-        <v>2196015</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="6">
@@ -699,17 +699,17 @@
         <v>0.51</v>
       </c>
       <c r="E6" t="n">
-        <v>74566008</v>
+        <v>74365508</v>
       </c>
       <c r="F6" t="n">
-        <v>73999913</v>
+        <v>73614639</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SMT_04122025_20102025_0.51_COLBUN</t>
+          <t>SMT_19122025_20102025_0.51_CFIMBIDA-A</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>151.06</v>
+        <v>18163</v>
       </c>
       <c r="L6" t="n">
-        <v>489871</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="7">
@@ -745,34 +745,264 @@
         <v>0.51</v>
       </c>
       <c r="E7" t="n">
-        <v>74528239</v>
+        <v>102170387</v>
       </c>
       <c r="F7" t="n">
-        <v>73999913</v>
+        <v>101806936</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>SMT_10112025_20102025_0.51_CFIMBIRF-A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>42812</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35398469</v>
+      </c>
+      <c r="F8" t="n">
+        <v>35272546</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SMT_10112025_20102025_0.51_CFIMBIDA-A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>18163</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16084550</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16002940</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SMT_19112025_20102025_0.51_ENELCHILE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>73.23999999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>218500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>74566008</v>
+      </c>
+      <c r="F10" t="n">
+        <v>73999913</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SMT_04122025_20102025_0.51_COLBUN</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>151.06</v>
+      </c>
+      <c r="L10" t="n">
+        <v>489871</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>74528239</v>
+      </c>
+      <c r="F11" t="n">
+        <v>73999913</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>SMT_01122025_20102025_0.51_COLBUN</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>COMPRA</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>SIMULTANEA</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K11" t="n">
         <v>151.06</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L11" t="n">
         <v>489871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E12" t="n">
+        <v>162230169</v>
+      </c>
+      <c r="F12" t="n">
+        <v>161407103</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SMT_19112025_20102025_0.51_ENELCHILE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2196015</v>
       </c>
     </row>
   </sheetData>
